--- a/medicine/Psychotrope/Palais_des_thés/Palais_des_thés.xlsx
+++ b/medicine/Psychotrope/Palais_des_thés/Palais_des_thés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Palais_des_th%C3%A9s</t>
+          <t>Palais_des_thés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Palais des Thés est une entreprise française indépendante de thé, fondée à Paris en 1986 par François-Xavier Delmas. La marque assure vendre aujourd’hui 600 tonnes de thés par an grâce, entre autres, à son réseau d’approvisionnement à la source et affichait un chiffre d’affaires de 63,3 M€ sur l’année 2020[2][source insuffisante]. En 2021, Palais des Thés compte 84 boutiques à travers le monde où sont vendus plus de 250 thés et infusions, ainsi qu’une sélection de créations parfumées[3][source détournée].
+Palais des Thés est une entreprise française indépendante de thé, fondée à Paris en 1986 par François-Xavier Delmas. La marque assure vendre aujourd’hui 600 tonnes de thés par an grâce, entre autres, à son réseau d’approvisionnement à la source et affichait un chiffre d’affaires de 63,3 M€ sur l’année 2020[source insuffisante]. En 2021, Palais des Thés compte 84 boutiques à travers le monde où sont vendus plus de 250 thés et infusions, ainsi qu’une sélection de créations parfumées[source détournée].
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Palais_des_th%C3%A9s</t>
+          <t>Palais_des_thés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,25 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Création
-En 1986, Julien Spiess réunit 45 amateurs de thé pour fonder une société anonyme : chaque personne doit contribuer à hauteur d’au moins 2 000 FRF (518,58 EUR2019) et le capital social de l’entreprise atteint au total 350 000 FRF (90 751,5 EUR2019)[réf. nécessaire]. Sa volonté est de fournir du thé en vrac au lieu du thé en sachet, de moins bonne qualité, qui constitue à l’époque 80 % du marché français du thé[4][réf. à confirmer].
-La même année, une première boutique, baptisée « Le Palais », ouvre dans le 6e arrondissement de Paris[5],[6][source insuffisante][blog], près du jardin du Luxembourg. Une seconde ouvrira un an plus tard, en 1988, dans le 14ème arrondissement[7][source non vérifiable].
-Développement
-En 1990, François-Xavier Delmas, actionnaire depuis l'origine de Palais des Thés, reprend 80 % des parts de ses associés alors que l’entreprise traverse une grave crise de gestion[8][source primaire].
-C’est lors de l’inauguration de la boutique Palais des Thés à Tokyo en 1991 que François-Xavier Delmas profite de son voyage pour visiter des plantations de thés. Il décide de s’approvisionner à la source[6][source insuffisante], en rencontrant des fermiers et en visitant leurs jardins de thé à travers le monde. Palais des Thés devient, à l’époque, la seule maison de thé française à importer les thés directement d’Asie sans passer par Hambourg, qui est le haut lieu du commerce du thé à l’échelle européenne[9].
-Expansion
-En 1997, Palais des Thés réalise 7,3 millions de francs de chiffre d’affaires[réf. nécessaire] et entame son expansion, notamment à l’international avec des ouvertures de boutiques à New York et Lisbonne[4][source insuffisante] ou encore Tel Aviv[10][réf. nécessaire].
-En 1999, Palais des Thés ouvre son site de commerce en ligne : les ventes en ligne représentent 18 % du chiffre d’affaires[6][source insuffisante][blog] de la marque en 2021. Des chiffres qui s’expliquent notamment par les confinements liés à la pandémie de Covid-19, lesquels ont eu un impact positif sur la consommation de boissons chaudes[11][source non vérifiable].
-Chiffre d'affaires et marché du thé en France
-En 2022, Palais des Thés possède 84 boutiques[6],[12] franchisées et en propre, et a réalisé un chiffre d’affaires de 89,5 M d'euros au 31/12/2022, soit une croissance de 41.4% par rapport à 2020[2].
-En 2021, Palais des Thés est considéré comme un des leaders du marché français du thé aux côtés de Compagnie Coloniale, Mariage Frères, Betjeman &amp; Barton avec qui ils partagent 20% des ventes avec une croissance affichée de 10% par an[13][source insuffisante].
-Collaborations avec le monde culturel
-Palais des Thés collabore régulièrement avec des institutions culturelles.
-2012 : création du Thé Guimet pour l’exposition « Le thé, histoire d’une boisson millénaire » au musée Guimet[14]
-2014 : création du Thé Hokusai pour l’exposition Hokusai au Grand Palais[15]
-2017 : création du Thé Gauguin pour l’exposition Gauguin au Grand Palais[16]
-2019 : création des thés du Louvre pour le musée[17]
-2022 : création des infusions du Louvre pour le musée[18]
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1986, Julien Spiess réunit 45 amateurs de thé pour fonder une société anonyme : chaque personne doit contribuer à hauteur d’au moins 2 000 FRF (518,58 EUR2019) et le capital social de l’entreprise atteint au total 350 000 FRF (90 751,5 EUR2019)[réf. nécessaire]. Sa volonté est de fournir du thé en vrac au lieu du thé en sachet, de moins bonne qualité, qui constitue à l’époque 80 % du marché français du thé[réf. à confirmer].
+La même année, une première boutique, baptisée « Le Palais », ouvre dans le 6e arrondissement de Paris,[source insuffisante][blog], près du jardin du Luxembourg. Une seconde ouvrira un an plus tard, en 1988, dans le 14ème arrondissement[source non vérifiable].
 </t>
         </is>
       </c>
@@ -543,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Palais_des_th%C3%A9s</t>
+          <t>Palais_des_thés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,13 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2018, pour proposer en vrac ses références de thés issues de l’agriculture biologique, Palais des Thés a obtenu la certification bio, accordée par Ecocert, pour l’ensemble de son parc de boutiques, en propre et franchisés, en France et en Belgique. En effet, cette certification assure la conformité des pratiques de manipulation du thé bio en vrac par rapport à la réglementation européenne sur le bio qui ne concerne que les produits pré-conditionnés[19][réf. nécessaire].[Le n° d'agrément Ecorcet, ça serait mieux]
-Parmi ses clients, Palais des Thés fournit notamment Air France[20][source secondaire souhaitée] et la Compagnie du Ponant[source secondaire souhaitée], mais aussi des hôtels et restaurants de luxe comme Le Maybourne Riviera à Roquebrune-Cap-Martin, le Negresco[21][source secondaire souhaitée] à Nice, ou encore les palaces du Crillon[22], du Lutetia[8] et du Bristol[23] à Paris[24].
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990, François-Xavier Delmas, actionnaire depuis l'origine de Palais des Thés, reprend 80 % des parts de ses associés alors que l’entreprise traverse une grave crise de gestion[source primaire].
+C’est lors de l’inauguration de la boutique Palais des Thés à Tokyo en 1991 que François-Xavier Delmas profite de son voyage pour visiter des plantations de thés. Il décide de s’approvisionner à la source[source insuffisante], en rencontrant des fermiers et en visitant leurs jardins de thé à travers le monde. Palais des Thés devient, à l’époque, la seule maison de thé française à importer les thés directement d’Asie sans passer par Hambourg, qui est le haut lieu du commerce du thé à l’échelle européenne.
 </t>
         </is>
       </c>
@@ -575,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Palais_des_th%C3%A9s</t>
+          <t>Palais_des_thés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,14 +597,168 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Expansion</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1997, Palais des Thés réalise 7,3 millions de francs de chiffre d’affaires[réf. nécessaire] et entame son expansion, notamment à l’international avec des ouvertures de boutiques à New York et Lisbonne[source insuffisante] ou encore Tel Aviv[réf. nécessaire].
+En 1999, Palais des Thés ouvre son site de commerce en ligne : les ventes en ligne représentent 18 % du chiffre d’affaires[source insuffisante][blog] de la marque en 2021. Des chiffres qui s’expliquent notamment par les confinements liés à la pandémie de Covid-19, lesquels ont eu un impact positif sur la consommation de boissons chaudes[source non vérifiable].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Palais_des_thés</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Palais_des_th%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chiffre d'affaires et marché du thé en France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, Palais des Thés possède 84 boutiques, franchisées et en propre, et a réalisé un chiffre d’affaires de 89,5 M d'euros au 31/12/2022, soit une croissance de 41.4% par rapport à 2020.
+En 2021, Palais des Thés est considéré comme un des leaders du marché français du thé aux côtés de Compagnie Coloniale, Mariage Frères, Betjeman &amp; Barton avec qui ils partagent 20% des ventes avec une croissance affichée de 10% par an[source insuffisante].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Palais_des_thés</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Palais_des_th%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collaborations avec le monde culturel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palais des Thés collabore régulièrement avec des institutions culturelles.
+2012 : création du Thé Guimet pour l’exposition « Le thé, histoire d’une boisson millénaire » au musée Guimet
+2014 : création du Thé Hokusai pour l’exposition Hokusai au Grand Palais
+2017 : création du Thé Gauguin pour l’exposition Gauguin au Grand Palais
+2019 : création des thés du Louvre pour le musée
+2022 : création des infusions du Louvre pour le musée
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Palais_des_thés</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Palais_des_th%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, pour proposer en vrac ses références de thés issues de l’agriculture biologique, Palais des Thés a obtenu la certification bio, accordée par Ecocert, pour l’ensemble de son parc de boutiques, en propre et franchisés, en France et en Belgique. En effet, cette certification assure la conformité des pratiques de manipulation du thé bio en vrac par rapport à la réglementation européenne sur le bio qui ne concerne que les produits pré-conditionnés[réf. nécessaire].[Le n° d'agrément Ecorcet, ça serait mieux]
+Parmi ses clients, Palais des Thés fournit notamment Air France[source secondaire souhaitée] et la Compagnie du Ponant[source secondaire souhaitée], mais aussi des hôtels et restaurants de luxe comme Le Maybourne Riviera à Roquebrune-Cap-Martin, le Negresco[source secondaire souhaitée] à Nice, ou encore les palaces du Crillon, du Lutetia et du Bristol à Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Palais_des_thés</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Palais_des_th%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le Guide du théophile, Le Palais des Thés, 2002, 128 p. (ISBN 2-9517419-0-1)
 Le Guide de dégustation de l'amateur de thé, de François-Xavier Delmas, Mathias Minet et Christine Barbaste, Les Éditions du Chêne, 2007.  (ISBN 2-9517419-2-8)
-Tea Sommelier - Le thé en 160 leçons illustrées, de François-Xavier Delmas et Mathias Minet, 2016[25]
+Tea Sommelier - Le thé en 160 leçons illustrées, de François-Xavier Delmas et Mathias Minet, 2016
 Chercheur de thé - de la découverte à l'initiation, de François-Xavier Delmas, Editions de la Martinière, 2020,  (ISBN 2732495247)</t>
         </is>
       </c>
